--- a/target/classes/inventory_store002.xlsx
+++ b/target/classes/inventory_store002.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\WorkFiles\Git\Revature\Robert-P0\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D9F244-49FD-4343-B398-593A93AFC91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A96627-AA61-4CBD-AD4F-92C3DE57EDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="3360" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -491,7 +491,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,7 +530,7 @@
         <v>11.949999809265137</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -547,7 +547,7 @@
         <v>11.949999809265137</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -564,7 +564,7 @@
         <v>7.9899997711181641</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -581,7 +581,7 @@
         <v>6.8899998664855957</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -598,7 +598,7 @@
         <v>11.949999809265137</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -615,7 +615,7 @@
         <v>6.8899998664855957</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -632,7 +632,7 @@
         <v>6.8899998664855957</v>
       </c>
       <c r="E8">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -649,7 +649,7 @@
         <v>7.9899997711181641</v>
       </c>
       <c r="E9">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -666,7 +666,7 @@
         <v>8.9899997711181641</v>
       </c>
       <c r="E10">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -683,7 +683,7 @@
         <v>7.9899997711181641</v>
       </c>
       <c r="E11">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -700,7 +700,7 @@
         <v>9.9899997711181641</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -717,7 +717,7 @@
         <v>7.9899997711181641</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -734,7 +734,7 @@
         <v>6.8899998664855957</v>
       </c>
       <c r="E14">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -751,7 +751,7 @@
         <v>7.9899997711181641</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -768,7 +768,7 @@
         <v>8.9899997711181641</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
